--- a/medicine/Médecine vétérinaire/Dent_de_loup/Dent_de_loup.xlsx
+++ b/medicine/Médecine vétérinaire/Dent_de_loup/Dent_de_loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dents de loup sont des dents de cheval, en forme de piton, situées devant (rostrales) les dents jugales des chevaux et autres équins. Elles sont des vestiges des premières prémolaires et la première dent jugale est désignée comme la deuxième prémolaire même lorsque les dents de loup ne sont pas présentes. Torbjörn Lundström en Suède a déclaré qu'environ 45-50 % de 25000 chevaux avaient des dents de loup. Elles sont beaucoup moins fréquentes dans la mandibule (mâchoire inférieure) que dans le maxillaire (mâchoire supérieure).
 Leur taille est extrêmement variable, de 3 mm de diamètre jusqu'à des racines de 2 cm de long. Dans un petit nombre de cas, elles peuvent être « molarisées » avec un bord irrégulier distinct de l'émail. Il est impossible de juger de la taille de la racine à partir d'un examen de la couronne, sauf pour dire que si la couronne est mobile il est alors très peu probable qu'il existe une grande racine intacte.
@@ -514,7 +526,9 @@
           <t>Dents de loups invisibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des dents de loup qui n'ont pas percé la gencive. Elles peuvent rester entièrement sous la gencive. Une bonne règle qui prévaut dans la plupart des cas est :
 Plus la dent de loup est vers l'avant (rostrale), plus il y a de chance qu'elle n'ait pas percé et que la racine de la dent soit parallèle au maxillaire.
@@ -547,7 +561,9 @@
           <t>Problèmes pouvant être causés par une dent de loup</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les dents de loup normales, sans pathologie, ne sont pas intrinsèquement douloureuses pour un cheval qui n'a pas de mors dans sa bouche. Par contre il est certain qu'il existe des cas où les dents de loup causent des problèmes à cause du harnachement du cheval.
 Quatre critères ont été postulés pour déterminer l'inconfort causé par une dent de loup.
@@ -587,7 +603,9 @@
           <t>Indications pour l'extraction d'une dent de loup</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une école de pensée affirme que tous les chevaux montés doivent avoir leurs dents de loup extraites car si elles sont supprimées alors elles ne peuvent plus causer des problèmes et l'extraction n'est pas une procédure chirurgicale majeure. Avec les dents de loup retirées il est aussi plus aisé de positionner un mors. D'autres pensent qu'une dent de loup doit être extraite quand elle est susceptible de causer un problème. Très peu de vétérinaires ou de dentistes équins pensent qu'elles ne sont jamais un problème. Il est certainement utile d'évaluer l'état des dents de loup car certains propriétaires de chevaux sont réticents à les extraire à moins qu'elles ne soient très susceptibles d'être à l'origine de futurs problèmes.
 Les facteurs suivants sont utiles dans la réalisation d'une évaluation:
